--- a/input/traffic/Pt_FinalEnergySources.xlsx
+++ b/input/traffic/Pt_FinalEnergySources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\traffic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F37A35-B006-46D6-A2C9-C86ADA843449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15BB3B3-211A-4C80-8EF5-572FD1E8DFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="917" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyperSource" sheetId="40" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="110">
   <si>
     <t>Country</t>
   </si>
@@ -316,13 +316,7 @@
     <t>https://www.fvv-net.de/fileadmin/Transfer/Downloads/FVV_H1086_Renewables_in_Transport_2050_-_Kraftstoffstudie_II.pdf</t>
   </si>
   <si>
-    <t>kWh/pkm (flight: PJ/pkm)</t>
-  </si>
-  <si>
     <t>Unit:</t>
-  </si>
-  <si>
-    <t>[1,5]</t>
   </si>
   <si>
     <t>Petrol</t>
@@ -382,7 +376,19 @@
     <t>car</t>
   </si>
   <si>
-    <t>Energy consumption kWh/pkm (flight: PJ/pkm)</t>
+    <t>[1 p. 114,5]</t>
+  </si>
+  <si>
+    <t>[1 p.118]</t>
+  </si>
+  <si>
+    <t>[1 p. 116]</t>
+  </si>
+  <si>
+    <t>Energy consumption MJ/pkm</t>
+  </si>
+  <si>
+    <t>MJ/pkm</t>
   </si>
 </sst>
 </file>
@@ -1120,64 +1126,65 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L1" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B2" s="23">
         <f>0.6/2.17*B7</f>
-        <v>8.8874259381171841E-2</v>
+        <v>0.31994733377221862</v>
       </c>
       <c r="C2" s="24">
-        <v>3.4000000000000002E-2</v>
+        <f>0.034*3.6</f>
+        <v>0.12240000000000001</v>
       </c>
       <c r="D2" s="27">
         <f>B2/B4*D4</f>
-        <v>0.14089196265076653</v>
+        <v>0.50721106554275941</v>
       </c>
       <c r="E2" s="22">
         <v>0</v>
@@ -1186,34 +1193,34 @@
         <v>0</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="17"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="23">
         <f>1.78/2.17*B7</f>
-        <v>0.26366030283080977</v>
+        <v>0.94917709019091512</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="26"/>
       <c r="E3" s="22"/>
       <c r="F3" s="21"/>
       <c r="H3" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>43</v>
@@ -1223,31 +1230,31 @@
       <c r="L3" s="18"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="23">
         <f>1.05/2.17*B7</f>
-        <v>0.15552995391705071</v>
+        <v>0.55990783410138256</v>
       </c>
       <c r="C4" s="24">
         <f>C2*21/13</f>
-        <v>5.4923076923076929E-2</v>
+        <v>0.19772307692307695</v>
       </c>
       <c r="D4" s="23">
         <f>14/13.6*D6</f>
-        <v>0.24656093463884138</v>
+        <v>0.88761936469982894</v>
       </c>
       <c r="E4" s="22">
         <v>0</v>
       </c>
       <c r="F4" s="21">
         <f>184/206*F5</f>
-        <v>1.6776512621359223E-9</v>
+        <v>1.6776512621359223</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>43</v>
@@ -1263,49 +1270,49 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="22"/>
       <c r="F5" s="21">
-        <f>5.46/100*34.4/10^9</f>
-        <v>1.8782399999999999E-9</v>
+        <f>5.46/100*34.4</f>
+        <v>1.8782399999999999</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
       <c r="L5" s="18"/>
       <c r="M5" s="17" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="23">
         <f>1.94/2.17*B7</f>
-        <v>0.2873601053324556</v>
+        <v>1.0344963791968402</v>
       </c>
       <c r="C6" s="24">
         <f>C2*35/13</f>
-        <v>9.1538461538461555E-2</v>
+        <v>0.32953846153846161</v>
       </c>
       <c r="D6" s="23">
-        <f>(40+55)/2/100*D20/(E13*E14)/3600*1000</f>
-        <v>0.23951633650630302</v>
+        <f>(40+55)/2/100*D20/(E13*E14)</f>
+        <v>0.8622588114226909</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="21"/>
       <c r="H6" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>43</v>
@@ -1314,57 +1321,57 @@
         <v>43</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" s="16">
-        <f>0.45/E15</f>
-        <v>0.32142857142857145</v>
+        <f>1.62/E15</f>
+        <v>1.1571428571428573</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="14"/>
       <c r="F7" s="13"/>
       <c r="H7" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="10"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" t="s">
         <v>53</v>
@@ -1376,7 +1383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>57</v>
@@ -1392,7 +1399,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" t="s">
         <v>79</v>
@@ -1407,7 +1414,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>77</v>
@@ -1425,14 +1432,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>73</v>
       </c>
@@ -1443,11 +1450,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>71</v>
       </c>
@@ -1465,10 +1472,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>67</v>
       </c>
@@ -1479,10 +1486,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="19:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S38" s="2"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J56" s="2"/>
     </row>
   </sheetData>
@@ -1491,9 +1498,10 @@
     <hyperlink ref="F20" r:id="rId2" xr:uid="{D2452B70-8D01-47EE-8D8A-27EBF5A5700A}"/>
     <hyperlink ref="F13" r:id="rId3" xr:uid="{81C0D36A-EA77-414A-9A27-071C6C658E71}"/>
     <hyperlink ref="F12" r:id="rId4" xr:uid="{9988327B-9A7A-4F62-A3B8-1FDED2F2F4FE}"/>
+    <hyperlink ref="F11" r:id="rId5" xr:uid="{8E5181F1-E5EC-4144-9A36-BA7D1EB35028}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1505,9 +1513,9 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1535,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1547,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1587,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1627,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1667,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1687,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1707,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1727,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1747,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1767,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1787,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1807,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1827,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1847,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1867,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1887,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1927,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1947,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1967,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1987,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2007,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2027,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2047,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2067,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2087,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2107,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2127,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2147,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2167,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2187,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2207,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2227,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2260,9 +2268,9 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2290,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2302,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2322,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2342,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2362,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2382,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2402,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2422,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2442,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2462,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2482,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2502,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2522,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2542,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2562,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2582,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2602,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2622,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2642,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2662,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2682,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2702,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2722,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2742,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2762,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2782,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2802,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2822,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2842,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2882,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2902,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2922,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2942,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2962,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3015,9 +3023,9 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3037,7 +3045,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3057,7 +3065,7 @@
         <v>15.206844122669718</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3077,7 +3085,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3097,7 +3105,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3117,7 +3125,7 @@
         <v>18.405732346758441</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3137,7 +3145,7 @@
         <v>15.206844122669718</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3157,7 +3165,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3177,7 +3185,7 @@
         <v>15.206844122669718</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3197,7 +3205,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3217,7 +3225,7 @@
         <v>10.316037812906131</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3237,7 +3245,7 @@
         <v>15.206844122669718</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3257,7 +3265,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -3277,7 +3285,7 @@
         <v>10.316037812906131</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3297,7 +3305,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3317,7 +3325,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3337,7 +3345,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3357,7 +3365,7 @@
         <v>15.206844122669718</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3377,7 +3385,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3397,7 +3405,7 @@
         <v>10.316037812906131</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3417,7 +3425,7 @@
         <v>18.405732346758441</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -3437,7 +3445,7 @@
         <v>15.206844122669718</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3457,7 +3465,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -3477,7 +3485,7 @@
         <v>10.316037812906131</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3497,7 +3505,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3517,7 +3525,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3537,7 +3545,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -3557,7 +3565,7 @@
         <v>18.405732346758441</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>18.405732346758441</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -3598,7 +3606,7 @@
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -3618,7 +3626,7 @@
         <v>18.405732346758441</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -3638,7 +3646,7 @@
         <v>18.405732346758441</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -3658,7 +3666,7 @@
         <v>15.206844122669718</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -3678,7 +3686,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -3698,7 +3706,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -3718,7 +3726,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -3738,7 +3746,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3758,7 +3766,7 @@
         <v>9.5788201602822198</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -3766,7 +3774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -3783,7 +3791,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>53</v>
       </c>
@@ -3797,7 +3805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>57</v>
       </c>
@@ -3808,7 +3816,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -3819,7 +3827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>61</v>
       </c>
@@ -3827,21 +3835,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="L50" s="2"/>
@@ -3866,9 +3874,9 @@
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3888,7 +3896,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3908,7 +3916,7 @@
         <v>31.033721751412429</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3928,7 +3936,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3948,7 +3956,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3968,7 +3976,7 @@
         <v>37.350999697652298</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3988,7 +3996,7 @@
         <v>31.033721751412429</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4008,7 +4016,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4028,7 +4036,7 @@
         <v>31.033721751412429</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4048,7 +4056,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4068,7 +4076,7 @@
         <v>26.832499828228151</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4088,7 +4096,7 @@
         <v>31.033721751412429</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4108,7 +4116,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -4128,7 +4136,7 @@
         <v>26.832499828228151</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -4148,7 +4156,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -4168,7 +4176,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -4188,7 +4196,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -4208,7 +4216,7 @@
         <v>31.033721751412429</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -4228,7 +4236,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -4248,7 +4256,7 @@
         <v>26.832499828228151</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -4268,7 +4276,7 @@
         <v>37.350999697652298</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -4288,7 +4296,7 @@
         <v>31.033721751412429</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -4308,7 +4316,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -4328,7 +4336,7 @@
         <v>26.832499828228151</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -4348,7 +4356,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -4368,7 +4376,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -4388,7 +4396,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -4408,7 +4416,7 @@
         <v>37.350999697652298</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -4428,7 +4436,7 @@
         <v>37.350999697652298</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -4448,7 +4456,7 @@
         <v>31.033721751412429</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -4468,7 +4476,7 @@
         <v>37.350999697652298</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -4488,7 +4496,7 @@
         <v>37.350999697652298</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -4508,7 +4516,7 @@
         <v>31.033721751412429</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -4528,7 +4536,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -4548,7 +4556,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -4568,7 +4576,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -4588,7 +4596,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -4608,7 +4616,7 @@
         <v>26.199226954964416</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -4616,7 +4624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -4633,7 +4641,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>53</v>
       </c>
@@ -4647,7 +4655,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>57</v>
       </c>
@@ -4658,7 +4666,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -4669,7 +4677,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>61</v>
       </c>
@@ -4677,7 +4685,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>63</v>
       </c>
@@ -4702,9 +4710,9 @@
       <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4724,7 +4732,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4744,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4764,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4784,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4804,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4824,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -4844,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -4864,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4884,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4904,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4924,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -4944,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -4964,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -4984,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -5004,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -5024,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -5044,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -5064,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -5084,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -5104,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -5124,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -5144,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -5164,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -5184,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -5204,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -5224,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -5244,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -5264,7 +5272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -5284,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -5304,7 +5312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -5324,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -5344,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -5364,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -5384,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -5404,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -5424,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -5444,13 +5452,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E44" s="6"/>
     </row>
   </sheetData>
@@ -5466,9 +5474,9 @@
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5488,7 +5496,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5508,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5528,7 +5536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5548,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -5568,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -5588,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -5608,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -5628,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -5648,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -5668,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -5688,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5708,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -5728,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -5748,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -5768,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -5788,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -5808,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -5828,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -5848,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -5868,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -5888,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -5908,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -5928,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -5948,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -5968,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -5988,7 +5996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -6008,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -6028,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -6048,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -6068,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -6088,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -6108,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -6128,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -6148,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -6168,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -6188,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -6221,9 +6229,9 @@
       <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6243,7 +6251,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6263,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6283,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -6303,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -6323,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -6343,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -6363,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -6383,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -6403,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -6423,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -6443,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -6463,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -6483,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -6503,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -6523,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -6543,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -6563,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -6583,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -6603,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -6623,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -6643,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -6663,7 +6671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -6683,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -6703,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -6723,7 +6731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -6743,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -6763,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -6783,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -6803,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -6823,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -6843,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -6863,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -6883,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -6903,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -6923,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -6943,7 +6951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -6976,9 +6984,9 @@
       <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6998,7 +7006,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7019,7 +7027,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -7039,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -7059,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7079,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -7099,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -7119,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -7139,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -7159,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -7179,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -7199,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -7219,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -7239,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -7259,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -7279,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -7299,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -7319,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -7339,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -7359,7 +7367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -7379,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -7399,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -7419,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -7439,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -7459,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -7479,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -7499,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -7519,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -7539,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -7560,7 +7568,7 @@
       </c>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -7580,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -7600,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -7620,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -7640,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -7660,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -7680,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -7700,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -7720,43 +7728,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F42" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="D45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="5"/>
       <c r="D46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="5"/>
       <c r="D47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="5"/>
       <c r="D48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="5"/>
       <c r="D49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D50" s="5"/>
       <c r="K50" s="2"/>
     </row>
@@ -7773,9 +7781,9 @@
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7795,7 +7803,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7815,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -7835,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -7855,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -7875,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -7895,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -7915,7 +7923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -7935,7 +7943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -7955,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -7975,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -7995,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -8015,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -8035,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -8055,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -8075,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -8095,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -8115,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -8135,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -8155,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -8175,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -8195,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -8215,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -8235,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -8255,7 +8263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -8275,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -8295,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -8315,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -8335,7 +8343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -8355,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -8375,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -8395,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -8415,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -8435,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -8455,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -8475,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -8495,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -8528,9 +8536,9 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8550,7 +8558,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8575,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -8600,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -8625,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8650,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -8675,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -8700,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -8725,7 +8733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -8750,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -8775,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -8800,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -8825,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -8850,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -8875,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -8900,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -8925,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -8950,7 +8958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -8975,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -9000,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -9025,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -9050,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -9075,7 +9083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -9100,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -9125,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -9150,7 +9158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -9175,7 +9183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -9200,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -9225,7 +9233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -9250,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -9275,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -9300,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -9325,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -9350,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -9375,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -9400,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -9425,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -9450,13 +9458,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E44" s="6"/>
     </row>
   </sheetData>
@@ -9472,9 +9480,9 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9494,7 +9502,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9515,7 +9523,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -9535,7 +9543,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -9555,7 +9563,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9575,7 +9583,7 @@
         <v>81.210745604182222</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -9595,7 +9603,7 @@
         <v>73.665769892105502</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -9615,7 +9623,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -9635,7 +9643,7 @@
         <v>73.665769892105502</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -9655,7 +9663,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -9675,7 +9683,7 @@
         <v>73.128932269967436</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -9695,7 +9703,7 @@
         <v>73.665769892105502</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -9715,7 +9723,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -9735,7 +9743,7 @@
         <v>73.128932269967436</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -9755,7 +9763,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -9775,7 +9783,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -9795,7 +9803,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -9815,7 +9823,7 @@
         <v>73.665769892105502</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -9835,7 +9843,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -9855,7 +9863,7 @@
         <v>73.128932269967436</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -9875,7 +9883,7 @@
         <v>81.210745604182222</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -9895,7 +9903,7 @@
         <v>73.665769892105502</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -9915,7 +9923,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -9935,7 +9943,7 @@
         <v>73.128932269967436</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -9955,7 +9963,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -9975,7 +9983,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -9995,7 +10003,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -10015,7 +10023,7 @@
         <v>81.210745604182222</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -10035,7 +10043,7 @@
         <v>81.210745604182222</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -10055,7 +10063,7 @@
         <v>73.665769892105502</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -10075,7 +10083,7 @@
         <v>81.210745604182222</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -10095,7 +10103,7 @@
         <v>81.210745604182222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -10115,7 +10123,7 @@
         <v>73.665769892105502</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -10135,7 +10143,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -10155,7 +10163,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -10175,7 +10183,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -10195,7 +10203,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -10215,7 +10223,7 @@
         <v>73.048011835469225</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -10223,7 +10231,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -10240,7 +10248,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>53</v>
       </c>
@@ -10254,7 +10262,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>57</v>
       </c>
@@ -10265,7 +10273,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -10276,7 +10284,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>61</v>
       </c>
@@ -10284,14 +10292,14 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="L50" s="2"/>
@@ -10313,9 +10321,9 @@
       <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10335,7 +10343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10355,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -10375,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -10395,7 +10403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10415,7 +10423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -10435,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -10455,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -10475,7 +10483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -10495,7 +10503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -10515,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -10535,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -10555,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -10575,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -10595,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -10615,7 +10623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -10635,7 +10643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -10655,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -10675,7 +10683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -10695,7 +10703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -10715,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -10735,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -10755,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -10775,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -10795,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -10815,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -10835,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -10855,7 +10863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -10875,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -10895,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -10915,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -10935,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -10955,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -10975,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -10995,7 +11003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -11015,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -11035,7 +11043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -11068,9 +11076,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11090,7 +11098,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -11110,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -11130,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -11150,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -11170,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -11190,7 +11198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -11210,7 +11218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -11230,7 +11238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -11250,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -11270,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -11290,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -11310,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -11330,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -11350,7 +11358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -11370,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -11390,7 +11398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -11410,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -11430,7 +11438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -11450,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -11470,7 +11478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -11490,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -11510,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -11530,7 +11538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -11550,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -11570,7 +11578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -11590,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -11610,7 +11618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -11630,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -11650,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -11670,7 +11678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -11690,7 +11698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -11710,7 +11718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -11730,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -11750,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -11770,7 +11778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -11790,7 +11798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -11826,9 +11834,9 @@
       <selection activeCell="C2" sqref="C2:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11848,7 +11856,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -11868,7 +11876,7 @@
         <v>65.808174435028249</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -11888,7 +11896,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -11908,7 +11916,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -11928,7 +11936,7 @@
         <v>62.540151517257669</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -11948,7 +11956,7 @@
         <v>65.808174435028249</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -11968,7 +11976,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -11988,7 +11996,7 @@
         <v>65.808174435028249</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -12008,7 +12016,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -12028,7 +12036,7 @@
         <v>66.055694143567578</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -12048,7 +12056,7 @@
         <v>65.808174435028249</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -12068,7 +12076,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -12088,7 +12096,7 @@
         <v>66.055694143567578</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -12108,7 +12116,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -12128,7 +12136,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -12148,7 +12156,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -12168,7 +12176,7 @@
         <v>65.808174435028249</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -12188,7 +12196,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -12208,7 +12216,7 @@
         <v>66.055694143567578</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -12228,7 +12236,7 @@
         <v>62.540151517257669</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -12248,7 +12256,7 @@
         <v>65.808174435028249</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -12268,7 +12276,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -12288,7 +12296,7 @@
         <v>66.055694143567578</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -12308,7 +12316,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -12328,7 +12336,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -12348,7 +12356,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -12368,7 +12376,7 @@
         <v>62.540151517257669</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -12388,7 +12396,7 @@
         <v>62.540151517257669</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -12408,7 +12416,7 @@
         <v>65.808174435028249</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -12428,7 +12436,7 @@
         <v>62.540151517257669</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -12448,7 +12456,7 @@
         <v>62.540151517257669</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -12468,7 +12476,7 @@
         <v>65.808174435028249</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -12488,7 +12496,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -12508,7 +12516,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -12528,7 +12536,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -12548,7 +12556,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -12568,7 +12576,7 @@
         <v>66.093004126206466</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -12576,7 +12584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -12593,7 +12601,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>53</v>
       </c>
@@ -12607,7 +12615,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>57</v>
       </c>
@@ -12618,7 +12626,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -12629,7 +12637,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>61</v>
       </c>
@@ -12637,7 +12645,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>63</v>
       </c>
@@ -12662,9 +12670,9 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12687,7 +12695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -12712,7 +12720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -12737,7 +12745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -12762,7 +12770,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -12787,7 +12795,7 @@
         <v>88.779661016949134</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -12812,7 +12820,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -12837,7 +12845,7 @@
         <v>50.949152542372886</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -12864,7 +12872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -12889,7 +12897,7 @@
         <v>71.389830508474589</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -12914,7 +12922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -12939,7 +12947,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -12964,7 +12972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -12989,7 +12997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -13014,7 +13022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -13039,7 +13047,7 @@
         <v>40.881355932203405</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -13064,7 +13072,7 @@
         <v>19.83050847457627</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -13089,7 +13097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -13114,7 +13122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -13139,7 +13147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -13164,7 +13172,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -13189,7 +13197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -13214,7 +13222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -13239,7 +13247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -13264,7 +13272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -13289,7 +13297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -13314,7 +13322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -13339,7 +13347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -13364,7 +13372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -13389,7 +13397,7 @@
         <v>98.847457627118658</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -13414,7 +13422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -13439,7 +13447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -13464,7 +13472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -13489,7 +13497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -13514,7 +13522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -13539,7 +13547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -13563,7 +13571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -13588,7 +13596,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -13596,7 +13604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -13613,7 +13621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D43">
         <f>10/41</f>
         <v>0.24390243902439024</v>
@@ -13622,7 +13630,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44">
         <f>90/59</f>
         <v>1.5254237288135593</v>
@@ -13631,7 +13639,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -13658,9 +13666,9 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13680,7 +13688,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -13700,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -13720,7 +13728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -13740,7 +13748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -13760,7 +13768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -13780,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -13800,7 +13808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -13820,7 +13828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -13840,7 +13848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -13860,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -13880,7 +13888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -13900,7 +13908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -13920,7 +13928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -13940,7 +13948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -13960,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -13980,7 +13988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -14000,7 +14008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -14020,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -14040,7 +14048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -14060,7 +14068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -14080,7 +14088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -14100,7 +14108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -14120,7 +14128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -14140,7 +14148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -14160,7 +14168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -14180,7 +14188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -14200,7 +14208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -14220,7 +14228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -14240,7 +14248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -14260,7 +14268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -14280,7 +14288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -14300,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -14320,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -14340,7 +14348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -14360,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -14380,7 +14388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -14413,9 +14421,9 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14435,7 +14443,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -14455,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -14475,7 +14483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -14495,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -14515,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -14535,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -14555,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -14575,7 +14583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -14595,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -14615,7 +14623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -14635,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -14655,7 +14663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -14675,7 +14683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -14695,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -14715,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -14735,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -14755,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -14775,7 +14783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -14795,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -14815,7 +14823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -14835,7 +14843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -14855,7 +14863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -14875,7 +14883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -14895,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -14915,7 +14923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -14935,7 +14943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -14955,7 +14963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -14975,7 +14983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -14995,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -15015,7 +15023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -15035,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -15055,7 +15063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -15075,7 +15083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -15095,7 +15103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -15115,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -15135,7 +15143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -15168,9 +15176,9 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15190,7 +15198,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -15211,7 +15219,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -15231,7 +15239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -15251,7 +15259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -15271,7 +15279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -15291,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -15311,7 +15319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -15331,7 +15339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -15351,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -15371,7 +15379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -15391,7 +15399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -15411,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -15431,7 +15439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -15451,7 +15459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -15471,7 +15479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -15491,7 +15499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -15511,7 +15519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -15531,7 +15539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -15551,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -15571,7 +15579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -15591,7 +15599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -15611,7 +15619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -15631,7 +15639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -15651,7 +15659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -15671,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -15691,7 +15699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -15711,7 +15719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -15731,7 +15739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -15752,7 +15760,7 @@
       </c>
       <c r="N29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -15772,7 +15780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -15792,7 +15800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -15812,7 +15820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -15832,7 +15840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -15852,7 +15860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -15872,7 +15880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -15892,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -15912,43 +15920,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F42" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="D45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="5"/>
       <c r="D46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="5"/>
       <c r="D47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="5"/>
       <c r="D48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="5"/>
       <c r="D49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D50" s="5"/>
       <c r="K50" s="2"/>
     </row>
@@ -15965,9 +15973,9 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15987,7 +15995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -16007,7 +16015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -16027,7 +16035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -16047,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -16067,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -16087,7 +16095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -16107,7 +16115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -16127,7 +16135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -16147,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -16167,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -16187,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -16207,7 +16215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -16227,7 +16235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -16247,7 +16255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -16267,7 +16275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -16287,7 +16295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -16307,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -16327,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -16347,7 +16355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -16367,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -16387,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -16407,7 +16415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -16427,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -16447,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -16467,7 +16475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -16487,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -16507,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -16527,7 +16535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -16547,7 +16555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -16567,7 +16575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -16587,7 +16595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -16607,7 +16615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -16627,7 +16635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -16647,7 +16655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -16667,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -16687,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -16720,9 +16728,9 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16742,7 +16750,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -16767,7 +16775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -16792,7 +16800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -16817,7 +16825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -16842,7 +16850,7 @@
         <v>88.779661016949134</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -16867,7 +16875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -16892,7 +16900,7 @@
         <v>50.949152542372886</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -16917,7 +16925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -16942,7 +16950,7 @@
         <v>71.389830508474589</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -16967,7 +16975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -16992,7 +17000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -17017,7 +17025,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -17042,7 +17050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -17067,7 +17075,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -17092,7 +17100,7 @@
         <v>40.881355932203405</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -17117,7 +17125,7 @@
         <v>19.83050847457627</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -17142,7 +17150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -17167,7 +17175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -17192,7 +17200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -17217,7 +17225,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -17242,7 +17250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -17267,7 +17275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -17292,7 +17300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -17317,7 +17325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -17342,7 +17350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -17367,7 +17375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -17392,7 +17400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -17417,7 +17425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -17442,7 +17450,7 @@
         <v>98.847457627118658</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -17467,7 +17475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -17492,7 +17500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -17517,7 +17525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -17542,7 +17550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -17567,7 +17575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -17592,7 +17600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -17617,7 +17625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -17642,13 +17650,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E44" s="6"/>
     </row>
   </sheetData>
